--- a/validacion_final/validacion_random.xlsx
+++ b/validacion_final/validacion_random.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian sossa\Documents\integraIT\projects_integrait\DNDI\validacion_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66BE651-3DE8-4793-8436-4A1B79AD8BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548EA443-4915-4877-AF5D-5EB8B1ED59D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="69">
   <si>
     <t>Subject</t>
   </si>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -748,16 +748,22 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -811,6 +817,12 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -843,7 +855,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -852,10 +864,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -863,9 +875,15 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
       <c r="M9">
-        <f>111-72</f>
-        <v>39</v>
+        <f>111-SUM(H2:H112)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -897,13 +915,13 @@
         <v>68</v>
       </c>
       <c r="M10">
-        <f>+M9/5</f>
-        <v>7.8</v>
+        <f>+M9/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -912,16 +930,22 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -955,7 +979,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -964,16 +988,22 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1123,7 +1153,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>409</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1135,13 +1165,19 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1175,7 +1211,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1184,16 +1220,22 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1227,7 +1269,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1236,16 +1278,22 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1299,6 +1347,12 @@
       <c r="G25" t="s">
         <v>11</v>
       </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1389,7 +1443,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
@@ -1398,16 +1452,22 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1441,7 +1501,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -1450,16 +1510,22 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1812,7 +1878,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>642</v>
+        <v>475</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
@@ -1821,16 +1887,22 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1855,10 +1927,16 @@
       <c r="G45" t="s">
         <v>11</v>
       </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
@@ -1867,16 +1945,22 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1968,7 +2052,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -1977,21 +2061,27 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -2000,21 +2090,27 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>612</v>
+        <v>492</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -2023,21 +2119,27 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>280</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -2046,21 +2148,27 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>382</v>
+        <v>285</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -2069,16 +2177,22 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2112,7 +2226,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -2121,7 +2235,7 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
         <v>33</v>
@@ -2132,10 +2246,16 @@
       <c r="G56" t="s">
         <v>11</v>
       </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -2147,18 +2267,24 @@
         <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -2167,16 +2293,22 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2268,7 +2400,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
@@ -2277,16 +2409,22 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2369,6 +2507,12 @@
       <c r="G65" t="s">
         <v>11</v>
       </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -2430,7 +2574,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>522</v>
+        <v>683</v>
       </c>
       <c r="B68" t="s">
         <v>24</v>
@@ -2439,21 +2583,27 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
@@ -2462,21 +2612,27 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="B70" t="s">
         <v>24</v>
@@ -2485,16 +2641,22 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2635,10 +2797,16 @@
       <c r="G75" t="s">
         <v>11</v>
       </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
@@ -2647,21 +2815,27 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
@@ -2670,21 +2844,27 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>665</v>
+        <v>570</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
@@ -2693,16 +2873,22 @@
         <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2814,6 +3000,12 @@
       <c r="G82" t="s">
         <v>11</v>
       </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -2866,10 +3058,16 @@
       <c r="G84" t="s">
         <v>11</v>
       </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>285</v>
+        <v>410</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
@@ -2878,16 +3076,22 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E85" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3037,7 +3241,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>524</v>
+        <v>574</v>
       </c>
       <c r="B91" t="s">
         <v>24</v>
@@ -3046,16 +3250,22 @@
         <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3147,7 +3357,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>276</v>
+        <v>409</v>
       </c>
       <c r="B95" t="s">
         <v>19</v>
@@ -3156,16 +3366,22 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3228,7 +3444,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>492</v>
+        <v>642</v>
       </c>
       <c r="B98" t="s">
         <v>24</v>
@@ -3237,16 +3453,22 @@
         <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3570,7 +3792,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="B110" t="s">
         <v>24</v>
@@ -3579,21 +3801,27 @@
         <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
       </c>
       <c r="G110" t="s">
         <v>11</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B111" t="s">
         <v>19</v>
@@ -3602,16 +3830,22 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
       </c>
       <c r="G111" t="s">
         <v>11</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3645,7 +3879,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I112" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I107">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:I110">
       <sortCondition ref="E1:E112"/>
     </sortState>
   </autoFilter>
